--- a/data/trans_orig/P19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C44070-0682-4256-AE79-AFC3104A78CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06850DD5-23E2-4ED8-A22F-075240FFAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A63699E6-5588-456D-A2C0-016E37215705}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F27E1EA-8B34-4826-AF17-A8AF19BE7921}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="462">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1312 +77,1354 @@
     <t>5,72%</t>
   </si>
   <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>96,78%</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A3A29A-07AA-436C-9B21-049B932E10C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE6872-18D3-42E1-8298-D6CB46A0B12F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,16 +1993,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>341</v>
@@ -1969,13 +2011,13 @@
         <v>338848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>365</v>
@@ -1984,13 +2026,13 @@
         <v>349111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
@@ -1999,13 +2041,13 @@
         <v>687960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2062,13 @@
         <v>359401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -2035,13 +2077,13 @@
         <v>376252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>757</v>
@@ -2050,18 +2092,18 @@
         <v>735654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2073,13 +2115,13 @@
         <v>22755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2088,13 +2130,13 @@
         <v>21814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2103,19 +2145,19 @@
         <v>44569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>533</v>
@@ -2124,13 +2166,13 @@
         <v>553026</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -2139,13 +2181,13 @@
         <v>525894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
@@ -2154,13 +2196,13 @@
         <v>1078920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2217,13 @@
         <v>575781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>519</v>
@@ -2190,13 +2232,13 @@
         <v>547708</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1073</v>
@@ -2205,18 +2247,18 @@
         <v>1123489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2228,13 +2270,13 @@
         <v>10415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2243,13 +2285,13 @@
         <v>16872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2258,19 +2300,19 @@
         <v>27287</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>475</v>
@@ -2279,13 +2321,13 @@
         <v>492518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>559</v>
@@ -2294,13 +2336,13 @@
         <v>586693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
@@ -2309,13 +2351,13 @@
         <v>1079210</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2372,13 @@
         <v>502933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>575</v>
@@ -2345,13 +2387,13 @@
         <v>603565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1061</v>
@@ -2360,13 +2402,13 @@
         <v>1106497</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2467,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>366</v>
@@ -2485,13 +2527,13 @@
         <v>404748</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>429</v>
@@ -2500,13 +2542,13 @@
         <v>439185</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>809</v>
@@ -2515,13 +2557,13 @@
         <v>843933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2586,7 @@
         <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2553,13 +2595,13 @@
         <v>6367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2568,19 +2610,19 @@
         <v>10129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>272</v>
@@ -2589,13 +2631,13 @@
         <v>268586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>306</v>
@@ -2604,13 +2646,13 @@
         <v>312715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>578</v>
@@ -2619,13 +2661,13 @@
         <v>581302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2682,13 @@
         <v>272349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>312</v>
@@ -2655,13 +2697,13 @@
         <v>319082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>588</v>
@@ -2670,18 +2712,18 @@
         <v>591431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2693,13 +2735,13 @@
         <v>12029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2708,13 +2750,13 @@
         <v>12833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2723,19 +2765,19 @@
         <v>24862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>336</v>
@@ -2744,13 +2786,13 @@
         <v>327500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>436</v>
@@ -2759,13 +2801,13 @@
         <v>442313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>772</v>
@@ -2774,13 +2816,13 @@
         <v>769813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2837,13 @@
         <v>339529</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>449</v>
@@ -2810,13 +2852,13 @@
         <v>455146</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>798</v>
@@ -2825,13 +2867,13 @@
         <v>794675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2890,13 @@
         <v>84321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2863,13 +2905,13 @@
         <v>95091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -2878,19 +2920,19 @@
         <v>179412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2323</v>
@@ -2899,13 +2941,13 @@
         <v>2370421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2584</v>
@@ -2914,13 +2956,13 @@
         <v>2645846</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>4907</v>
@@ -2929,13 +2971,13 @@
         <v>5016267</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2992,13 @@
         <v>2454742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>2679</v>
@@ -2965,13 +3007,13 @@
         <v>2740937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>5086</v>
@@ -2980,18 +3022,18 @@
         <v>5195679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863DBFCF-D087-48BA-A29F-3CC78C6FFE54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAEEDA5-65E5-4BC6-B658-4FC223B65FE1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,7 +3072,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3137,13 +3179,13 @@
         <v>33434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -3152,13 +3194,13 @@
         <v>32823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -3167,19 +3209,19 @@
         <v>66257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>340</v>
@@ -3188,28 +3230,28 @@
         <v>345742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
       </c>
       <c r="I5" s="7">
-        <v>338167</v>
+        <v>338168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>669</v>
@@ -3218,13 +3260,13 @@
         <v>683909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,28 +3281,28 @@
         <v>379176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>735</v>
@@ -3269,18 +3311,18 @@
         <v>750166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3292,13 +3334,13 @@
         <v>26884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3307,13 +3349,13 @@
         <v>31303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3322,19 +3364,19 @@
         <v>58187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>555</v>
@@ -3343,13 +3385,13 @@
         <v>570383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3358,13 +3400,13 @@
         <v>527507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -3373,13 +3415,13 @@
         <v>1097889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3436,13 @@
         <v>597267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>522</v>
@@ -3409,13 +3451,13 @@
         <v>558810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1102</v>
@@ -3424,18 +3466,18 @@
         <v>1156076</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3447,13 +3489,13 @@
         <v>15784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3462,13 +3504,13 @@
         <v>21772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3477,19 +3519,19 @@
         <v>37556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>548</v>
@@ -3498,13 +3540,13 @@
         <v>570867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>599</v>
@@ -3513,13 +3555,13 @@
         <v>637682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1147</v>
@@ -3528,13 +3570,13 @@
         <v>1208548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3591,13 @@
         <v>586651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>621</v>
@@ -3564,13 +3606,13 @@
         <v>659454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1184</v>
@@ -3579,13 +3621,13 @@
         <v>1246104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3644,13 @@
         <v>10722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3617,13 +3659,13 @@
         <v>11904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3632,34 +3674,34 @@
         <v>22626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>474</v>
       </c>
       <c r="D14" s="7">
-        <v>532118</v>
+        <v>532117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3668,13 +3710,13 @@
         <v>551447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -3683,13 +3725,13 @@
         <v>1083564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,16 +3743,16 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>493</v>
@@ -3719,13 +3761,13 @@
         <v>563351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>976</v>
@@ -3734,13 +3776,13 @@
         <v>1106190</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3799,13 @@
         <v>4277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3772,13 +3814,13 @@
         <v>5072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3787,19 +3829,19 @@
         <v>9349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>330</v>
@@ -3808,13 +3850,13 @@
         <v>357033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3823,13 +3865,13 @@
         <v>385643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3838,13 +3880,13 @@
         <v>742676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3901,13 @@
         <v>361310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -3874,13 +3916,13 @@
         <v>390715</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>686</v>
@@ -3889,18 +3931,18 @@
         <v>752025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3912,13 +3954,13 @@
         <v>6293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3927,13 +3969,13 @@
         <v>10066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -3942,19 +3984,19 @@
         <v>16358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>398</v>
@@ -3963,13 +4005,13 @@
         <v>441123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -3978,13 +4020,13 @@
         <v>592936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -3993,13 +4035,13 @@
         <v>1034060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4056,13 @@
         <v>447416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -4029,13 +4071,13 @@
         <v>603002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>968</v>
@@ -4044,13 +4086,13 @@
         <v>1050418</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4109,13 @@
         <v>97394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -4082,13 +4124,13 @@
         <v>112940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4097,19 +4139,19 @@
         <v>210334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2645</v>
@@ -4118,28 +4160,28 @@
         <v>2817264</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>2810</v>
       </c>
       <c r="I23" s="7">
-        <v>3033382</v>
+        <v>3033381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>5455</v>
@@ -4148,13 +4190,13 @@
         <v>5850646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,28 +4211,28 @@
         <v>2914658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>2915</v>
       </c>
       <c r="I24" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>5651</v>
@@ -4199,18 +4241,18 @@
         <v>6060980</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4232,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F9713F-27FE-40E6-9346-CE2B4DD979BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E448677-9A4D-4D1C-9034-E3902DF6E56D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4249,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4398,13 @@
         <v>19318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4371,13 +4413,13 @@
         <v>26876</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -4386,19 +4428,19 @@
         <v>46194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>312</v>
@@ -4407,13 +4449,13 @@
         <v>333522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>331</v>
@@ -4422,13 +4464,13 @@
         <v>325054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>643</v>
@@ -4437,13 +4479,13 @@
         <v>658576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4500,13 @@
         <v>352840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>359</v>
@@ -4473,13 +4515,13 @@
         <v>351930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>690</v>
@@ -4488,18 +4530,18 @@
         <v>704770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4514,10 +4556,10 @@
         <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4526,13 +4568,13 @@
         <v>27304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4541,19 +4583,19 @@
         <v>45347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>457</v>
@@ -4565,10 +4607,10 @@
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -4577,13 +4619,13 @@
         <v>469416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -4592,13 +4634,13 @@
         <v>944450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4655,13 @@
         <v>493078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>510</v>
@@ -4628,13 +4670,13 @@
         <v>496720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>985</v>
@@ -4643,18 +4685,18 @@
         <v>989797</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4666,13 +4708,13 @@
         <v>18985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4681,13 +4723,13 @@
         <v>14468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4696,19 +4738,19 @@
         <v>33453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>513</v>
@@ -4717,13 +4759,13 @@
         <v>538875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>561</v>
@@ -4732,13 +4774,13 @@
         <v>558612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
         <v>1074</v>
@@ -4747,13 +4789,13 @@
         <v>1097487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4810,13 @@
         <v>557860</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>576</v>
@@ -4783,13 +4825,13 @@
         <v>573080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1107</v>
@@ -4798,13 +4840,13 @@
         <v>1130940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4863,13 @@
         <v>9008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4836,13 +4878,13 @@
         <v>16163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4851,19 +4893,19 @@
         <v>25171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>455</v>
@@ -4872,13 +4914,13 @@
         <v>503364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -4887,13 +4929,13 @@
         <v>528721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>947</v>
@@ -4902,13 +4944,13 @@
         <v>1032085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4965,13 @@
         <v>512372</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>507</v>
@@ -4938,13 +4980,13 @@
         <v>544884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>970</v>
@@ -4953,13 +4995,13 @@
         <v>1057256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5018,13 @@
         <v>5871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4991,13 +5033,13 @@
         <v>7517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5006,19 +5048,19 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>324</v>
@@ -5027,13 +5069,13 @@
         <v>365131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -5042,13 +5084,13 @@
         <v>388356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>662</v>
@@ -5057,13 +5099,13 @@
         <v>753488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5120,13 @@
         <v>371002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>345</v>
@@ -5093,13 +5135,13 @@
         <v>395873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -5108,18 +5150,18 @@
         <v>766875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5131,13 +5173,13 @@
         <v>4541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5146,13 +5188,13 @@
         <v>10748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5161,19 +5203,19 @@
         <v>15289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>396</v>
@@ -5182,13 +5224,13 @@
         <v>372641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -5197,13 +5239,13 @@
         <v>494079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -5212,13 +5254,13 @@
         <v>866720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5275,13 @@
         <v>377182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>430</v>
@@ -5248,13 +5290,13 @@
         <v>504827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -5263,13 +5305,13 @@
         <v>882009</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5328,13 @@
         <v>75765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -5301,13 +5343,13 @@
         <v>103076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -5316,19 +5358,19 @@
         <v>178841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>2457</v>
@@ -5337,13 +5379,13 @@
         <v>2588569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>360</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H23" s="7">
         <v>2626</v>
@@ -5352,13 +5394,13 @@
         <v>2764239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M23" s="7">
         <v>5083</v>
@@ -5367,13 +5409,13 @@
         <v>5352808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5430,13 @@
         <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>2727</v>
@@ -5403,13 +5445,13 @@
         <v>2867315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>5257</v>
@@ -5418,18 +5460,18 @@
         <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5451,7 +5493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF2C67-65F3-4DF1-8C08-CD040515946F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C4AB4D-67EA-462C-A940-6FC6D5A84CC3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5468,7 +5510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5575,13 +5617,13 @@
         <v>21737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5590,13 +5632,13 @@
         <v>26709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5605,19 +5647,19 @@
         <v>48446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>146</v>
@@ -5626,13 +5668,13 @@
         <v>336021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -5641,13 +5683,13 @@
         <v>317787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -5656,13 +5698,13 @@
         <v>653808</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5719,13 @@
         <v>357758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>195</v>
@@ -5692,13 +5734,13 @@
         <v>344496</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -5707,18 +5749,18 @@
         <v>702254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5730,13 +5772,13 @@
         <v>20947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5745,13 +5787,13 @@
         <v>37863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5760,19 +5802,19 @@
         <v>58811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>265</v>
@@ -5781,13 +5823,13 @@
         <v>386253</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -5796,13 +5838,13 @@
         <v>448012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>674</v>
@@ -5811,13 +5853,13 @@
         <v>834264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5874,13 @@
         <v>407200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>442</v>
@@ -5847,13 +5889,13 @@
         <v>485875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>723</v>
@@ -5862,18 +5904,18 @@
         <v>893075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5885,13 +5927,13 @@
         <v>19328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5900,13 +5942,13 @@
         <v>23453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -5915,19 +5957,19 @@
         <v>42781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>510</v>
@@ -5936,13 +5978,13 @@
         <v>525027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -5951,13 +5993,13 @@
         <v>548743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -5966,13 +6008,13 @@
         <v>1073771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6029,13 @@
         <v>544355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>825</v>
@@ -6002,13 +6044,13 @@
         <v>572196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1352</v>
@@ -6017,13 +6059,13 @@
         <v>1116552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6082,13 @@
         <v>20902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -6055,13 +6097,13 @@
         <v>25218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -6070,19 +6112,19 @@
         <v>46119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>618</v>
@@ -6091,13 +6133,13 @@
         <v>681692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>1081</v>
@@ -6106,13 +6148,13 @@
         <v>708589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>1699</v>
@@ -6121,13 +6163,13 @@
         <v>1390281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6184,13 @@
         <v>702594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1117</v>
@@ -6157,13 +6199,13 @@
         <v>733807</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1758</v>
@@ -6172,13 +6214,13 @@
         <v>1436400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6237,13 @@
         <v>7956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6210,13 +6252,13 @@
         <v>15873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6225,19 +6267,19 @@
         <v>23829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>637</v>
@@ -6246,13 +6288,13 @@
         <v>576814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -6261,28 +6303,28 @@
         <v>566470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>1590</v>
       </c>
       <c r="N17" s="7">
-        <v>1143284</v>
+        <v>1143285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6339,13 @@
         <v>584770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>981</v>
@@ -6312,33 +6354,33 @@
         <v>582343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6350,13 +6392,13 @@
         <v>15719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -6365,13 +6407,13 @@
         <v>22309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -6380,19 +6422,19 @@
         <v>38028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>983</v>
@@ -6401,13 +6443,13 @@
         <v>664743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>1618</v>
@@ -6416,13 +6458,13 @@
         <v>975821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>2601</v>
@@ -6431,13 +6473,13 @@
         <v>1640564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6494,13 @@
         <v>680462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1657</v>
@@ -6467,13 +6509,13 @@
         <v>998130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2659</v>
@@ -6482,13 +6524,13 @@
         <v>1678592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6547,13 @@
         <v>106588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -6520,13 +6562,13 @@
         <v>151425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -6535,19 +6577,19 @@
         <v>258013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3159</v>
@@ -6556,13 +6598,13 @@
         <v>3170550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H23" s="7">
         <v>5036</v>
@@ -6571,13 +6613,13 @@
         <v>3565423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="M23" s="7">
         <v>8195</v>
@@ -6586,13 +6628,13 @@
         <v>6735973</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6649,13 @@
         <v>3277138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5217</v>
@@ -6622,13 +6664,13 @@
         <v>3716848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8470</v>
@@ -6637,18 +6679,18 @@
         <v>6993986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06850DD5-23E2-4ED8-A22F-075240FFAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC04CC5A-17DB-49AC-8029-25D64D2CC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F27E1EA-8B34-4826-AF17-A8AF19BE7921}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66171352-B959-438B-9412-B2083BFF93E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="422">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>7,21%</t>
@@ -89,16 +89,16 @@
     <t>5,02%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>10,11%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>94,28%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>89,89%</t>
   </si>
   <si>
     <t>94,98%</t>
@@ -125,10 +125,10 @@
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -152,31 +152,31 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>6,11%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>93,89%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -185,10 +185,10 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,49 +197,49 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,1164 +248,1050 @@
     <t>3,66%</t>
   </si>
   <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
     <t>97,42%</t>
   </si>
   <si>
@@ -1416,12 +1302,6 @@
   </si>
   <si>
     <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
   </si>
   <si>
     <t>96,78%</t>
@@ -1836,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE6872-18D3-42E1-8298-D6CB46A0B12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3587B66-90D5-4BA4-A26F-CBD39440D789}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2300,10 +2180,10 @@
         <v>27287</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2351,13 +2231,13 @@
         <v>1079210</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,10 +2493,10 @@
         <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2511,13 @@
         <v>268586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>306</v>
@@ -2646,13 +2526,13 @@
         <v>312715</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>578</v>
@@ -2661,13 +2541,13 @@
         <v>581302</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2603,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2735,13 +2615,13 @@
         <v>12029</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2750,13 +2630,13 @@
         <v>12833</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2765,13 +2645,13 @@
         <v>24862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2666,13 @@
         <v>327500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>436</v>
@@ -2801,13 +2681,13 @@
         <v>442313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>772</v>
@@ -2816,13 +2696,13 @@
         <v>769813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2770,13 @@
         <v>84321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2905,13 +2785,13 @@
         <v>95091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -2920,13 +2800,13 @@
         <v>179412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2821,13 @@
         <v>2370421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>2584</v>
@@ -2956,13 +2836,13 @@
         <v>2645846</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>4907</v>
@@ -2971,13 +2851,13 @@
         <v>5016267</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +2913,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAEEDA5-65E5-4BC6-B658-4FC223B65FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C397F9-E014-4F10-8850-686F427675F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3072,7 +2952,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3179,13 +3059,13 @@
         <v>33434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -3194,13 +3074,13 @@
         <v>32823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -3209,13 +3089,13 @@
         <v>66257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,28 +3110,28 @@
         <v>345742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
       </c>
       <c r="I5" s="7">
-        <v>338168</v>
+        <v>338167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>669</v>
@@ -3260,13 +3140,13 @@
         <v>683909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3173,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3334,13 +3214,13 @@
         <v>26884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3349,13 +3229,13 @@
         <v>31303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3364,13 +3244,13 @@
         <v>58187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3265,13 @@
         <v>570383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3400,13 +3280,13 @@
         <v>527507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -3415,13 +3295,13 @@
         <v>1097889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3369,13 @@
         <v>15784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3504,13 +3384,13 @@
         <v>21772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3519,13 +3399,13 @@
         <v>37556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3420,13 @@
         <v>570867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>599</v>
@@ -3555,13 +3435,13 @@
         <v>637682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1147</v>
@@ -3570,13 +3450,13 @@
         <v>1208548</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3524,13 @@
         <v>10722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3659,13 +3539,13 @@
         <v>11904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3674,13 +3554,13 @@
         <v>22626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,16 +3572,16 @@
         <v>474</v>
       </c>
       <c r="D14" s="7">
-        <v>532117</v>
+        <v>532118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3710,13 +3590,13 @@
         <v>551447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -3725,13 +3605,13 @@
         <v>1083564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3623,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3799,13 +3679,13 @@
         <v>4277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3814,13 +3694,13 @@
         <v>5072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3829,13 +3709,13 @@
         <v>9349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3730,13 @@
         <v>357033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3865,13 +3745,13 @@
         <v>385643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3880,13 +3760,13 @@
         <v>742676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3822,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3954,13 +3834,13 @@
         <v>6293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3969,13 +3849,13 @@
         <v>10066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -3984,13 +3864,13 @@
         <v>16358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3885,13 @@
         <v>441123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -4020,13 +3900,13 @@
         <v>592936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -4035,13 +3915,13 @@
         <v>1034060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +3989,13 @@
         <v>97394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -4124,13 +4004,13 @@
         <v>112940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4139,13 +4019,13 @@
         <v>210334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4040,13 @@
         <v>2817264</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>2810</v>
@@ -4175,13 +4055,13 @@
         <v>3033381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>5455</v>
@@ -4190,13 +4070,13 @@
         <v>5850646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4132,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E448677-9A4D-4D1C-9034-E3902DF6E56D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAF49C-B75B-4263-8A35-DCC9C83DE073}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,7 +4171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4398,13 +4278,13 @@
         <v>19318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4413,13 +4293,13 @@
         <v>26876</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -4428,13 +4308,13 @@
         <v>46194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4329,13 @@
         <v>333522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>331</v>
@@ -4464,13 +4344,13 @@
         <v>325054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>643</v>
@@ -4479,13 +4359,13 @@
         <v>658576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,10 +4436,10 @@
         <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4568,13 +4448,13 @@
         <v>27304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4583,13 +4463,13 @@
         <v>45347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4487,10 @@
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -4619,13 +4499,13 @@
         <v>469416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -4634,13 +4514,13 @@
         <v>944450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4588,13 @@
         <v>18985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4726,10 +4606,10 @@
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4738,13 +4618,13 @@
         <v>33453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4639,13 @@
         <v>538875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>561</v>
@@ -4777,10 +4657,10 @@
         <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1074</v>
@@ -4789,13 +4669,13 @@
         <v>1097487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4743,13 @@
         <v>9008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4878,13 +4758,13 @@
         <v>16163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4893,13 +4773,13 @@
         <v>25171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4794,13 @@
         <v>503364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -4929,13 +4809,13 @@
         <v>528721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>947</v>
@@ -4944,13 +4824,13 @@
         <v>1032085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +4898,13 @@
         <v>5871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5033,13 +4913,13 @@
         <v>7517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5048,13 +4928,13 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +4949,13 @@
         <v>365131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -5084,13 +4964,13 @@
         <v>388356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>662</v>
@@ -5099,13 +4979,13 @@
         <v>753488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,7 +5041,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5173,13 +5053,13 @@
         <v>4541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5188,13 +5068,13 @@
         <v>10748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5203,13 +5083,13 @@
         <v>15289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5104,13 @@
         <v>372641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -5239,13 +5119,13 @@
         <v>494079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -5254,13 +5134,13 @@
         <v>866720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5208,13 @@
         <v>75765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -5343,13 +5223,13 @@
         <v>103076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -5358,13 +5238,13 @@
         <v>178841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5259,13 @@
         <v>2588569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>2626</v>
@@ -5394,28 +5274,28 @@
         <v>2764239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>5083</v>
       </c>
       <c r="N23" s="7">
-        <v>5352808</v>
+        <v>5352807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5337,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5471,7 +5351,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C4AB4D-67EA-462C-A940-6FC6D5A84CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238ED2F7-7B2C-4A6A-B42F-C6C3779F90C0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5617,13 +5497,13 @@
         <v>21737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5632,13 +5512,13 @@
         <v>26709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5647,13 +5527,13 @@
         <v>48446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5548,13 @@
         <v>336021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -5683,13 +5563,13 @@
         <v>317787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -5698,13 +5578,13 @@
         <v>653808</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5652,13 @@
         <v>20947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5787,13 +5667,13 @@
         <v>37863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5802,13 +5682,13 @@
         <v>58811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5703,13 @@
         <v>386253</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -5838,13 +5718,13 @@
         <v>448012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>674</v>
@@ -5853,13 +5733,13 @@
         <v>834264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5807,13 @@
         <v>19328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5942,13 +5822,13 @@
         <v>23453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -5957,13 +5837,13 @@
         <v>42781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5858,13 @@
         <v>525027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -5993,13 +5873,13 @@
         <v>548743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -6008,13 +5888,13 @@
         <v>1073771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +5962,13 @@
         <v>20902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -6097,13 +5977,13 @@
         <v>25218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -6112,13 +5992,13 @@
         <v>46119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6013,13 @@
         <v>681692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>1081</v>
@@ -6148,13 +6028,13 @@
         <v>708589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1699</v>
@@ -6163,13 +6043,13 @@
         <v>1390281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,10 +6117,10 @@
         <v>7956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -6252,13 +6132,13 @@
         <v>15873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>422</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6267,13 +6147,13 @@
         <v>23829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6168,13 @@
         <v>576814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -6303,13 +6183,13 @@
         <v>566470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>429</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>1590</v>
@@ -6318,13 +6198,13 @@
         <v>1143285</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>432</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6260,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6392,13 +6272,13 @@
         <v>15719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -6407,13 +6287,13 @@
         <v>22309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -6422,13 +6302,13 @@
         <v>38028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6323,13 @@
         <v>664743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>1618</v>
@@ -6458,13 +6338,13 @@
         <v>975821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>2601</v>
@@ -6473,13 +6353,13 @@
         <v>1640564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6427,13 @@
         <v>106588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -6562,13 +6442,13 @@
         <v>151425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -6577,13 +6457,13 @@
         <v>258013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6478,13 @@
         <v>3170550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>5036</v>
@@ -6613,13 +6493,13 @@
         <v>3565423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>8195</v>
@@ -6628,13 +6508,13 @@
         <v>6735973</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>459</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,7 +6570,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC04CC5A-17DB-49AC-8029-25D64D2CC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{166FC635-FBBC-4A44-A4A4-9F3F5D4B8A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66171352-B959-438B-9412-B2083BFF93E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB1DB47-E437-4964-9E06-DFCE20ED0423}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1240 +71,1318 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3587B66-90D5-4BA4-A26F-CBD39440D789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D06A0-1B88-498D-8E54-92FCF7EF5695}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1873,16 +1951,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>341</v>
@@ -1891,13 +1969,13 @@
         <v>338848</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>365</v>
@@ -1906,13 +1984,13 @@
         <v>349111</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>706</v>
@@ -1921,13 +1999,13 @@
         <v>687960</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +2020,13 @@
         <v>359401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -1957,13 +2035,13 @@
         <v>376252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>757</v>
@@ -1972,18 +2050,18 @@
         <v>735654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1995,13 +2073,13 @@
         <v>22755</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2010,13 +2088,13 @@
         <v>21814</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2025,19 +2103,19 @@
         <v>44569</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>533</v>
@@ -2046,13 +2124,13 @@
         <v>553026</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -2061,13 +2139,13 @@
         <v>525894</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
@@ -2076,13 +2154,13 @@
         <v>1078920</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2175,13 @@
         <v>575781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>519</v>
@@ -2112,13 +2190,13 @@
         <v>547708</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1073</v>
@@ -2127,18 +2205,18 @@
         <v>1123489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2150,13 +2228,13 @@
         <v>10415</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2165,13 +2243,13 @@
         <v>16872</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2180,19 +2258,19 @@
         <v>27287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>475</v>
@@ -2201,13 +2279,13 @@
         <v>492518</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>559</v>
@@ -2216,13 +2294,13 @@
         <v>586693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1034</v>
@@ -2231,7 +2309,7 @@
         <v>1079210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>65</v>
@@ -2252,13 +2330,13 @@
         <v>502933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>575</v>
@@ -2267,13 +2345,13 @@
         <v>603565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1061</v>
@@ -2282,13 +2360,13 @@
         <v>1106497</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2425,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>366</v>
@@ -2407,13 +2485,13 @@
         <v>404748</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>429</v>
@@ -2422,13 +2500,13 @@
         <v>439185</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>809</v>
@@ -2437,13 +2515,13 @@
         <v>843933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,7 +2544,7 @@
         <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2475,13 +2553,13 @@
         <v>6367</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2490,19 +2568,19 @@
         <v>10129</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>272</v>
@@ -2511,13 +2589,13 @@
         <v>268586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>306</v>
@@ -2526,13 +2604,13 @@
         <v>312715</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>578</v>
@@ -2541,10 +2619,10 @@
         <v>581302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>100</v>
@@ -2562,13 +2640,13 @@
         <v>272349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>312</v>
@@ -2577,13 +2655,13 @@
         <v>319082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>588</v>
@@ -2592,18 +2670,18 @@
         <v>591431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2615,13 +2693,13 @@
         <v>12029</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2630,13 +2708,13 @@
         <v>12833</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2645,19 +2723,19 @@
         <v>24862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>336</v>
@@ -2666,13 +2744,13 @@
         <v>327500</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>436</v>
@@ -2681,13 +2759,13 @@
         <v>442313</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>772</v>
@@ -2696,7 +2774,7 @@
         <v>769813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>118</v>
@@ -2717,13 +2795,13 @@
         <v>339529</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>449</v>
@@ -2732,13 +2810,13 @@
         <v>455146</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>798</v>
@@ -2747,13 +2825,13 @@
         <v>794675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2866,10 @@
         <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -2800,7 +2878,7 @@
         <v>179412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>126</v>
@@ -2812,7 +2890,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2323</v>
@@ -2842,7 +2920,7 @@
         <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>4907</v>
@@ -2851,7 +2929,7 @@
         <v>5016267</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>134</v>
@@ -2872,13 +2950,13 @@
         <v>2454742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>2679</v>
@@ -2887,13 +2965,13 @@
         <v>2740937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>5086</v>
@@ -2902,13 +2980,13 @@
         <v>5195679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C397F9-E014-4F10-8850-686F427675F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8115C727-87C2-4037-B1C5-04F5C192A04B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3179,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>340</v>
@@ -3161,13 +3239,13 @@
         <v>379176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>362</v>
@@ -3176,13 +3254,13 @@
         <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>735</v>
@@ -3191,18 +3269,18 @@
         <v>750166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3256,7 +3334,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>555</v>
@@ -3316,13 +3394,13 @@
         <v>597267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>522</v>
@@ -3331,13 +3409,13 @@
         <v>558810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1102</v>
@@ -3346,18 +3424,18 @@
         <v>1156076</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3411,7 +3489,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>548</v>
@@ -3471,13 +3549,13 @@
         <v>586651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>621</v>
@@ -3486,13 +3564,13 @@
         <v>659454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1184</v>
@@ -3501,13 +3579,13 @@
         <v>1246104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3608,7 @@
         <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3539,13 +3617,13 @@
         <v>11904</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3554,19 +3632,19 @@
         <v>22626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>474</v>
@@ -3575,13 +3653,13 @@
         <v>532118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3590,13 +3668,13 @@
         <v>551447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -3605,13 +3683,13 @@
         <v>1083564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3704,13 @@
         <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>493</v>
@@ -3641,13 +3719,13 @@
         <v>563351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>976</v>
@@ -3656,13 +3734,13 @@
         <v>1106190</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3757,13 @@
         <v>4277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3694,13 +3772,13 @@
         <v>5072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3709,19 +3787,19 @@
         <v>9349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>330</v>
@@ -3730,13 +3808,13 @@
         <v>357033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3745,13 +3823,13 @@
         <v>385643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3760,13 +3838,13 @@
         <v>742676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3859,13 @@
         <v>361310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -3796,13 +3874,13 @@
         <v>390715</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>686</v>
@@ -3811,18 +3889,18 @@
         <v>752025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3834,13 +3912,13 @@
         <v>6293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3849,13 +3927,13 @@
         <v>10066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -3864,19 +3942,19 @@
         <v>16358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>398</v>
@@ -3885,13 +3963,13 @@
         <v>441123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>555</v>
@@ -3900,13 +3978,13 @@
         <v>592936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>953</v>
@@ -3915,13 +3993,13 @@
         <v>1034060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +4014,13 @@
         <v>447416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>564</v>
@@ -3951,13 +4029,13 @@
         <v>603002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>968</v>
@@ -3966,13 +4044,13 @@
         <v>1050418</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +4067,13 @@
         <v>97394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -4004,13 +4082,13 @@
         <v>112940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4022,16 +4100,16 @@
         <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2645</v>
@@ -4040,28 +4118,28 @@
         <v>2817264</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>2810</v>
       </c>
       <c r="I23" s="7">
-        <v>3033381</v>
+        <v>3033382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>5455</v>
@@ -4073,10 +4151,10 @@
         <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,28 +4169,28 @@
         <v>2914658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>2915</v>
       </c>
       <c r="I24" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>5651</v>
@@ -4121,13 +4199,13 @@
         <v>6060980</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,7 +4232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAF49C-B75B-4263-8A35-DCC9C83DE073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D12DE-96A0-47F5-BAB8-7820BC2907FB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4278,13 +4356,13 @@
         <v>19318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4293,13 +4371,13 @@
         <v>26876</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -4308,19 +4386,19 @@
         <v>46194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>312</v>
@@ -4329,13 +4407,13 @@
         <v>333522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>331</v>
@@ -4344,13 +4422,13 @@
         <v>325054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
         <v>643</v>
@@ -4359,13 +4437,13 @@
         <v>658576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4458,13 @@
         <v>352840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>359</v>
@@ -4395,13 +4473,13 @@
         <v>351930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>690</v>
@@ -4410,18 +4488,18 @@
         <v>704770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4436,10 +4514,10 @@
         <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4448,13 +4526,13 @@
         <v>27304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4463,19 +4541,19 @@
         <v>45347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>457</v>
@@ -4487,10 +4565,10 @@
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -4499,13 +4577,13 @@
         <v>469416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -4514,13 +4592,13 @@
         <v>944450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4613,13 @@
         <v>493078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>510</v>
@@ -4550,13 +4628,13 @@
         <v>496720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>985</v>
@@ -4565,18 +4643,18 @@
         <v>989797</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4588,13 +4666,13 @@
         <v>18985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4603,13 +4681,13 @@
         <v>14468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4618,19 +4696,19 @@
         <v>33453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>513</v>
@@ -4639,13 +4717,13 @@
         <v>538875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>561</v>
@@ -4654,13 +4732,13 @@
         <v>558612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1074</v>
@@ -4669,13 +4747,13 @@
         <v>1097487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4768,13 @@
         <v>557860</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>576</v>
@@ -4705,13 +4783,13 @@
         <v>573080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1107</v>
@@ -4720,13 +4798,13 @@
         <v>1130940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4821,13 @@
         <v>9008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4758,13 +4836,13 @@
         <v>16163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4773,19 +4851,19 @@
         <v>25171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>455</v>
@@ -4794,13 +4872,13 @@
         <v>503364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -4809,13 +4887,13 @@
         <v>528721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>947</v>
@@ -4824,13 +4902,13 @@
         <v>1032085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4923,13 @@
         <v>512372</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>507</v>
@@ -4860,13 +4938,13 @@
         <v>544884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>970</v>
@@ -4875,13 +4953,13 @@
         <v>1057256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4976,13 @@
         <v>5871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4913,13 +4991,13 @@
         <v>7517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4928,19 +5006,19 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>324</v>
@@ -4949,13 +5027,13 @@
         <v>365131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -4964,13 +5042,13 @@
         <v>388356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>662</v>
@@ -4979,13 +5057,13 @@
         <v>753488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5078,13 @@
         <v>371002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>345</v>
@@ -5015,13 +5093,13 @@
         <v>395873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -5030,18 +5108,18 @@
         <v>766875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5131,13 @@
         <v>4541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5068,13 +5146,13 @@
         <v>10748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5083,19 +5161,19 @@
         <v>15289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>396</v>
@@ -5104,13 +5182,13 @@
         <v>372641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -5119,13 +5197,13 @@
         <v>494079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -5134,13 +5212,13 @@
         <v>866720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5233,13 @@
         <v>377182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>430</v>
@@ -5170,13 +5248,13 @@
         <v>504827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -5185,13 +5263,13 @@
         <v>882009</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5286,13 @@
         <v>75765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -5223,13 +5301,13 @@
         <v>103076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -5238,19 +5316,19 @@
         <v>178841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2457</v>
@@ -5259,13 +5337,13 @@
         <v>2588569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>2626</v>
@@ -5274,28 +5352,28 @@
         <v>2764239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>5083</v>
       </c>
       <c r="N23" s="7">
-        <v>5352807</v>
+        <v>5352808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5388,13 @@
         <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>2727</v>
@@ -5325,28 +5403,28 @@
         <v>2867315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238ED2F7-7B2C-4A6A-B42F-C6C3779F90C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41731EF6-5001-4F38-A342-81BCB4A5B245}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5390,7 +5468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5497,13 +5575,13 @@
         <v>21737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5512,13 +5590,13 @@
         <v>26709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5527,19 +5605,19 @@
         <v>48446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>146</v>
@@ -5548,13 +5626,13 @@
         <v>336021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -5563,13 +5641,13 @@
         <v>317787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -5578,13 +5656,13 @@
         <v>653808</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5677,13 @@
         <v>357758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>195</v>
@@ -5614,13 +5692,13 @@
         <v>344496</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -5629,18 +5707,18 @@
         <v>702254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5730,13 @@
         <v>20947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5667,13 +5745,13 @@
         <v>37863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5682,19 +5760,19 @@
         <v>58811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>265</v>
@@ -5703,13 +5781,13 @@
         <v>386253</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -5718,13 +5796,13 @@
         <v>448012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>674</v>
@@ -5733,13 +5811,13 @@
         <v>834264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5832,13 @@
         <v>407200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>442</v>
@@ -5769,13 +5847,13 @@
         <v>485875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>723</v>
@@ -5784,18 +5862,18 @@
         <v>893075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5807,13 +5885,13 @@
         <v>19328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5822,13 +5900,13 @@
         <v>23453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -5837,19 +5915,19 @@
         <v>42781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>510</v>
@@ -5858,13 +5936,13 @@
         <v>525027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -5873,13 +5951,13 @@
         <v>548743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -5888,13 +5966,13 @@
         <v>1073771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5987,13 @@
         <v>544355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>825</v>
@@ -5924,13 +6002,13 @@
         <v>572196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1352</v>
@@ -5939,13 +6017,13 @@
         <v>1116552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +6040,13 @@
         <v>20902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5980,10 +6058,10 @@
         <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5992,19 +6070,19 @@
         <v>46119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>618</v>
@@ -6013,13 +6091,13 @@
         <v>681692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1081</v>
@@ -6031,10 +6109,10 @@
         <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>1699</v>
@@ -6043,13 +6121,13 @@
         <v>1390281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6142,13 @@
         <v>702594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1117</v>
@@ -6079,13 +6157,13 @@
         <v>733807</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1758</v>
@@ -6094,13 +6172,13 @@
         <v>1436400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6195,13 @@
         <v>7956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6132,13 +6210,13 @@
         <v>15873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -6147,19 +6225,19 @@
         <v>23829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>637</v>
@@ -6168,13 +6246,13 @@
         <v>576814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -6183,28 +6261,28 @@
         <v>566470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>1590</v>
       </c>
       <c r="N17" s="7">
-        <v>1143285</v>
+        <v>1143284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6297,13 @@
         <v>584770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>981</v>
@@ -6234,33 +6312,33 @@
         <v>582343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6272,13 +6350,13 @@
         <v>15719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -6287,13 +6365,13 @@
         <v>22309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -6302,19 +6380,19 @@
         <v>38028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>983</v>
@@ -6323,13 +6401,13 @@
         <v>664743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>1618</v>
@@ -6338,13 +6416,13 @@
         <v>975821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>2601</v>
@@ -6353,13 +6431,13 @@
         <v>1640564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6452,13 @@
         <v>680462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1657</v>
@@ -6389,13 +6467,13 @@
         <v>998130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2659</v>
@@ -6404,13 +6482,13 @@
         <v>1678592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6505,13 @@
         <v>106588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -6442,13 +6520,13 @@
         <v>151425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -6457,19 +6535,19 @@
         <v>258013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3159</v>
@@ -6478,13 +6556,13 @@
         <v>3170550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>5036</v>
@@ -6493,13 +6571,13 @@
         <v>3565423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>8195</v>
@@ -6508,13 +6586,13 @@
         <v>6735973</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6607,13 @@
         <v>3277138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5217</v>
@@ -6544,13 +6622,13 @@
         <v>3716848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8470</v>
@@ -6559,13 +6637,13 @@
         <v>6993986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{166FC635-FBBC-4A44-A4A4-9F3F5D4B8A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED2718D-AE7C-4B6E-AA22-F1AAD3754FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB1DB47-E437-4964-9E06-DFCE20ED0423}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{66429F16-3A66-49C8-9178-90B2C4C4322D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="495">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,95%</t>
@@ -185,7 +185,7 @@
     <t>97,09%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -242,7 +242,7 @@
     <t>98,35%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -299,7 +299,7 @@
     <t>98,11%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -344,1045 +344,1186 @@
     <t>99,14%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>97,08%</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998D06A0-1B88-498D-8E54-92FCF7EF5695}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26014148-F8F2-4FFE-B999-4587B6EB91EC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1996,7 +2137,7 @@
         <v>706</v>
       </c>
       <c r="N5" s="7">
-        <v>687960</v>
+        <v>687959</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -2047,7 +2188,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -2687,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>12029</v>
+        <v>9380</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2702,10 +2843,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>12833</v>
+        <v>8244</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>105</v>
@@ -2717,10 +2858,10 @@
         <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>24862</v>
+        <v>17623</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -2738,10 +2879,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="D20" s="7">
-        <v>327500</v>
+        <v>203385</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -2753,10 +2894,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>436</v>
+        <v>258</v>
       </c>
       <c r="I20" s="7">
-        <v>442313</v>
+        <v>238694</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -2768,10 +2909,10 @@
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>772</v>
+        <v>467</v>
       </c>
       <c r="N20" s="7">
-        <v>769813</v>
+        <v>442080</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
@@ -2789,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2804,10 +2945,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2819,10 +2960,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2836,55 +2977,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>84321</v>
+        <v>2650</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>95091</v>
+        <v>4589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>179412</v>
+        <v>7239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,49 +3034,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2323</v>
+        <v>127</v>
       </c>
       <c r="D23" s="7">
-        <v>2370421</v>
+        <v>124114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>2584</v>
+        <v>178</v>
       </c>
       <c r="I23" s="7">
-        <v>2645846</v>
+        <v>203619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>4907</v>
+        <v>305</v>
       </c>
       <c r="N23" s="7">
-        <v>5016267</v>
+        <v>327733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,63 +3085,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>84</v>
+      </c>
+      <c r="D25" s="7">
+        <v>84321</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>95</v>
+      </c>
+      <c r="I25" s="7">
+        <v>95091</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>179</v>
+      </c>
+      <c r="N25" s="7">
+        <v>179412</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2323</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2370421</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2584</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2645846</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4907</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5016267</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5195679</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3013,8 +3310,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8115C727-87C2-4037-B1C5-04F5C192A04B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D449B4-C3AE-46EB-86CC-A7C774BB4831}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3030,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3137,13 +3434,13 @@
         <v>33434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -3152,13 +3449,13 @@
         <v>32823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -3167,13 +3464,13 @@
         <v>66257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,28 +3485,28 @@
         <v>345742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
       </c>
       <c r="I5" s="7">
-        <v>338167</v>
+        <v>338168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>669</v>
@@ -3218,13 +3515,13 @@
         <v>683909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3548,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3292,13 +3589,13 @@
         <v>26884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3307,13 +3604,13 @@
         <v>31303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3322,13 +3619,13 @@
         <v>58187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3640,13 @@
         <v>570383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3358,13 +3655,13 @@
         <v>527507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -3373,13 +3670,13 @@
         <v>1097889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3744,13 @@
         <v>15784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3462,13 +3759,13 @@
         <v>21772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3477,13 +3774,13 @@
         <v>37556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3795,13 @@
         <v>570867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>599</v>
@@ -3513,13 +3810,13 @@
         <v>637682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>1147</v>
@@ -3528,13 +3825,13 @@
         <v>1208548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,10 +3899,10 @@
         <v>10722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>33</v>
@@ -3617,13 +3914,13 @@
         <v>11904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3632,13 +3929,13 @@
         <v>22626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,16 +3947,16 @@
         <v>474</v>
       </c>
       <c r="D14" s="7">
-        <v>532118</v>
+        <v>532117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3668,13 +3965,13 @@
         <v>551447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -3683,13 +3980,13 @@
         <v>1083564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3998,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -3757,13 +4054,13 @@
         <v>4277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3772,13 +4069,13 @@
         <v>5072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3787,13 +4084,13 @@
         <v>9349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +4105,13 @@
         <v>357033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3823,13 +4120,13 @@
         <v>385643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3838,13 +4135,13 @@
         <v>742676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +4203,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>6293</v>
+        <v>1954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>10066</v>
+        <v>5595</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>16358</v>
+        <v>7549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,49 +4254,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>441123</v>
+        <v>260536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>555</v>
+        <v>286</v>
       </c>
       <c r="I20" s="7">
-        <v>592936</v>
+        <v>294994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
-        <v>953</v>
+        <v>523</v>
       </c>
       <c r="N20" s="7">
-        <v>1034060</v>
+        <v>555530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4023,10 +4320,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603002</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4038,10 +4335,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>1050418</v>
+        <v>563079</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4055,55 +4352,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>97394</v>
+        <v>4339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>112940</v>
+        <v>4471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>210334</v>
+        <v>8809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4409,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2645</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7">
-        <v>2817264</v>
+        <v>180587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
-        <v>2810</v>
+        <v>269</v>
       </c>
       <c r="I23" s="7">
-        <v>3033382</v>
+        <v>297942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
-        <v>5455</v>
+        <v>430</v>
       </c>
       <c r="N23" s="7">
-        <v>5850646</v>
+        <v>478530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,63 +4460,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>91</v>
+      </c>
+      <c r="D25" s="7">
+        <v>97394</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="7">
+        <v>105</v>
+      </c>
+      <c r="I25" s="7">
+        <v>112940</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="7">
+        <v>196</v>
+      </c>
+      <c r="N25" s="7">
+        <v>210334</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2645</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2817265</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2810</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3033381</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5455</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5850646</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>2915</v>
       </c>
-      <c r="I24" s="7">
-        <v>3146322</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3146321</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>5651</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6060980</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4232,8 +4685,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D12DE-96A0-47F5-BAB8-7820BC2907FB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE68AC17-2E88-499C-85CE-7EC67F830A13}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4249,7 +4702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,13 +4809,13 @@
         <v>19318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4371,13 +4824,13 @@
         <v>26876</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -4386,13 +4839,13 @@
         <v>46194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4860,13 @@
         <v>333522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>331</v>
@@ -4422,10 +4875,10 @@
         <v>325054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>46</v>
@@ -4437,13 +4890,13 @@
         <v>658576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,10 +4967,10 @@
         <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4526,13 +4979,13 @@
         <v>27304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4541,13 +4994,13 @@
         <v>45347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +5018,10 @@
         <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -4577,13 +5030,13 @@
         <v>469416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -4592,13 +5045,13 @@
         <v>944450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +5119,13 @@
         <v>18985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4681,13 +5134,13 @@
         <v>14468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4696,13 +5149,13 @@
         <v>33453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +5170,13 @@
         <v>538875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>561</v>
@@ -4732,13 +5185,13 @@
         <v>558612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>1074</v>
@@ -4747,13 +5200,13 @@
         <v>1097487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5274,13 @@
         <v>9008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4836,13 +5289,13 @@
         <v>16163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4851,13 +5304,13 @@
         <v>25171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +5325,13 @@
         <v>503364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -4887,10 +5340,10 @@
         <v>528721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
@@ -4902,13 +5355,13 @@
         <v>1032085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5429,13 @@
         <v>5871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4991,13 +5444,13 @@
         <v>7517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5006,13 +5459,13 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5480,13 @@
         <v>365131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -5042,13 +5495,13 @@
         <v>388356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>662</v>
@@ -5057,13 +5510,13 @@
         <v>753488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +5578,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>4541</v>
+        <v>3746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>10748</v>
+        <v>6774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>15289</v>
+        <v>10520</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,49 +5629,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="D20" s="7">
-        <v>372641</v>
+        <v>226379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>421</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7">
-        <v>494079</v>
+        <v>270174</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
-        <v>817</v>
+        <v>476</v>
       </c>
       <c r="N20" s="7">
-        <v>866720</v>
+        <v>496554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,10 +5680,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5242,10 +5695,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -5257,10 +5710,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -5274,55 +5727,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>75765</v>
+        <v>795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>103076</v>
+        <v>3973</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>178841</v>
+        <v>4768</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,49 +5784,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2457</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>2588569</v>
+        <v>146262</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
-        <v>2626</v>
+        <v>167</v>
       </c>
       <c r="I23" s="7">
-        <v>2764239</v>
+        <v>223906</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
-        <v>5083</v>
+        <v>341</v>
       </c>
       <c r="N23" s="7">
-        <v>5352808</v>
+        <v>370168</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,63 +5835,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>75765</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="7">
+        <v>101</v>
+      </c>
+      <c r="I25" s="7">
+        <v>103076</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M25" s="7">
+        <v>174</v>
+      </c>
+      <c r="N25" s="7">
+        <v>178841</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2457</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2588568</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2626</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2764239</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5083</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5352807</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5451,8 +6060,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41731EF6-5001-4F38-A342-81BCB4A5B245}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3262E5A-9D67-4456-A002-6EC4F5807AFD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5468,7 +6077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5572,46 +6181,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>21737</v>
+        <v>27511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>26709</v>
+        <v>22776</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>48446</v>
+        <v>50287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,46 +6232,46 @@
         <v>146</v>
       </c>
       <c r="D5" s="7">
-        <v>336021</v>
+        <v>355936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>317787</v>
+        <v>280765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
       </c>
       <c r="N5" s="7">
-        <v>653808</v>
+        <v>636701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,7 +6283,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -5689,7 +6298,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -5704,7 +6313,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5727,46 +6336,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>20947</v>
+        <v>20206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>37863</v>
+        <v>36093</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>58811</v>
+        <v>56299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,46 +6387,46 @@
         <v>265</v>
       </c>
       <c r="D8" s="7">
-        <v>386253</v>
+        <v>382145</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
       </c>
       <c r="I8" s="7">
-        <v>448012</v>
+        <v>463599</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>674</v>
       </c>
       <c r="N8" s="7">
-        <v>834264</v>
+        <v>845743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,7 +6438,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -5844,7 +6453,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -5859,7 +6468,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -5882,46 +6491,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>19328</v>
+        <v>18437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>23453</v>
+        <v>21982</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>42781</v>
+        <v>40420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,46 +6542,46 @@
         <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>525027</v>
+        <v>505605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
       </c>
       <c r="I11" s="7">
-        <v>548743</v>
+        <v>509899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
       </c>
       <c r="N11" s="7">
-        <v>1073771</v>
+        <v>1015503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +6593,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -5999,7 +6608,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6014,7 +6623,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6037,46 +6646,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>20902</v>
+        <v>19471</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>25218</v>
+        <v>22818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>46119</v>
+        <v>42288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,46 +6697,46 @@
         <v>618</v>
       </c>
       <c r="D14" s="7">
-        <v>681692</v>
+        <v>843457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>1081</v>
       </c>
       <c r="I14" s="7">
-        <v>708589</v>
+        <v>677774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>1699</v>
       </c>
       <c r="N14" s="7">
-        <v>1390281</v>
+        <v>1521231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,7 +6748,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6154,7 +6763,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6169,7 +6778,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -6192,46 +6801,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>7956</v>
+        <v>7240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>15873</v>
+        <v>14573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>23829</v>
+        <v>21813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,46 +6852,46 @@
         <v>637</v>
       </c>
       <c r="D17" s="7">
-        <v>576814</v>
+        <v>539339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
       </c>
       <c r="I17" s="7">
-        <v>566470</v>
+        <v>519953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>1590</v>
       </c>
       <c r="N17" s="7">
-        <v>1143284</v>
+        <v>1059292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,7 +6903,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -6309,7 +6918,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -6324,7 +6933,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -6344,49 +6953,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>15719</v>
+        <v>8971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>22309</v>
+        <v>10127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>38028</v>
+        <v>19098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,49 +7004,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>983</v>
+        <v>544</v>
       </c>
       <c r="D20" s="7">
-        <v>664743</v>
+        <v>350382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="H20" s="7">
-        <v>1618</v>
+        <v>787</v>
       </c>
       <c r="I20" s="7">
-        <v>975821</v>
+        <v>589782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
-        <v>2601</v>
+        <v>1331</v>
       </c>
       <c r="N20" s="7">
-        <v>1640564</v>
+        <v>940164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,10 +7055,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -6461,10 +7070,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -6476,10 +7085,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -6493,55 +7102,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>106588</v>
+        <v>5683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>151425</v>
+        <v>9991</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>258013</v>
+        <v>15674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,49 +7159,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3159</v>
+        <v>439</v>
       </c>
       <c r="D23" s="7">
-        <v>3170550</v>
+        <v>269838</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="H23" s="7">
-        <v>5036</v>
+        <v>831</v>
       </c>
       <c r="I23" s="7">
-        <v>3565423</v>
+        <v>398696</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
-        <v>8195</v>
+        <v>1270</v>
       </c>
       <c r="N23" s="7">
-        <v>6735973</v>
+        <v>668534</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,63 +7210,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>107520</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H25" s="7">
+        <v>181</v>
+      </c>
+      <c r="I25" s="7">
+        <v>138358</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M25" s="7">
+        <v>275</v>
+      </c>
+      <c r="N25" s="7">
+        <v>245878</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3159</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3246701</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5036</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3440469</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8195</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6687170</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
